--- a/student.xlsx
+++ b/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\school-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F036CAEE-FE7E-46AF-9855-D71F03909F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC4E08-5680-4EE7-A162-69D929F00B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>birthday</t>
   </si>
@@ -92,16 +92,10 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>111excellname123454</t>
-  </si>
-  <si>
-    <t>11excellnames112345</t>
-  </si>
-  <si>
-    <t>1111exemail1231@gmail.com</t>
-  </si>
-  <si>
-    <t>111exemail1232@gmail.com</t>
+    <t>asdad</t>
+  </si>
+  <si>
+    <t>sdsds@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -550,13 +544,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>123123123145423</v>
+        <v>4353434</v>
       </c>
       <c r="E2" s="3">
         <v>44810</v>
@@ -596,61 +590,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>543535356523</v>
-      </c>
-      <c r="E3" s="3">
-        <v>44810</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2">
-        <v>9123</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>9123</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4D3C3B0C-C445-4675-A58B-FA7F37359B9F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{11B4EDC2-9443-4C97-A13C-E349F6BDFCD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/student.xlsx
+++ b/student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\school-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC4E08-5680-4EE7-A162-69D929F00B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943AC8A1-563A-47CB-8BA3-6E29C2A61DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>abc123</t>
-  </si>
-  <si>
     <t>Catholic</t>
   </si>
   <si>
@@ -92,10 +89,13 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>asdad</t>
-  </si>
-  <si>
-    <t>sdsds@gmail.com</t>
+    <t>studentexcel</t>
+  </si>
+  <si>
+    <t>studentexcel@gmail.com</t>
+  </si>
+  <si>
+    <t>abc123excel</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,22 +499,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -541,37 +541,37 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2">
-        <v>4353434</v>
+        <v>9555730503</v>
       </c>
       <c r="E2" s="3">
         <v>44810</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="2">
         <v>9123</v>

--- a/student.xlsx
+++ b/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\accounting-monitoring-with-sms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943AC8A1-563A-47CB-8BA3-6E29C2A61DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9924E-514C-45DA-BF41-429D82CA38B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>mother_occupation</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -89,13 +86,16 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>studentexcel</t>
-  </si>
-  <si>
-    <t>studentexcel@gmail.com</t>
-  </si>
-  <si>
-    <t>abc123excel</t>
+    <t>student_code</t>
+  </si>
+  <si>
+    <t>studentD</t>
+  </si>
+  <si>
+    <t>studentD@gmail.com</t>
+  </si>
+  <si>
+    <t>123456asdzxc</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,34 +490,34 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -556,22 +556,22 @@
         <v>44810</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
       </c>
       <c r="L2" s="2">
         <v>9123</v>

--- a/student.xlsx
+++ b/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9924E-514C-45DA-BF41-429D82CA38B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553B70D6-8507-4412-8590-866041EE26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>birthday</t>
   </si>
@@ -89,13 +89,31 @@
     <t>student_code</t>
   </si>
   <si>
-    <t>studentD</t>
-  </si>
-  <si>
-    <t>studentD@gmail.com</t>
-  </si>
-  <si>
-    <t>123456asdzxc</t>
+    <t>course</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>course1</t>
+  </si>
+  <si>
+    <t>year1</t>
+  </si>
+  <si>
+    <t>major1</t>
+  </si>
+  <si>
+    <t>studentEE@gmail.com</t>
+  </si>
+  <si>
+    <t>studentEE</t>
+  </si>
+  <si>
+    <t>123456asdzxcEE</t>
   </si>
 </sst>
 </file>
@@ -466,29 +484,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CA6CD-15A5-44D6-8552-2C8A2F67E216}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" customWidth="1"/>
+    <col min="3" max="7" width="21" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="13" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" customWidth="1"/>
+    <col min="21" max="21" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -499,104 +517,122 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
         <v>9555730503</v>
       </c>
-      <c r="E2" s="3">
+      <c r="H2" s="3">
         <v>44810</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2">
+      <c r="O2" s="2">
         <v>9123</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>9123</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/student.xlsx
+++ b/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553B70D6-8507-4412-8590-866041EE26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7C884-9D55-418B-AE55-CD8C638BD3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,13 +107,13 @@
     <t>major1</t>
   </si>
   <si>
-    <t>studentEE@gmail.com</t>
-  </si>
-  <si>
-    <t>studentEE</t>
-  </si>
-  <si>
-    <t>123456asdzxcEE</t>
+    <t>Juan dela cruz</t>
+  </si>
+  <si>
+    <t>juandelacruz01@gmail.com</t>
+  </si>
+  <si>
+    <t>2022-201</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +568,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>

--- a/student.xlsx
+++ b/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7C884-9D55-418B-AE55-CD8C638BD3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118ED4A-DB46-49A2-9EB4-B4EE0E15DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>birthday</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>2022-201</t>
+  </si>
+  <si>
+    <t>juandelacruz01sdsd@gmail.com</t>
+  </si>
+  <si>
+    <t>Juan dela cruz111</t>
+  </si>
+  <si>
+    <t>2022-201we</t>
   </si>
 </sst>
 </file>
@@ -487,7 +496,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,19 +635,70 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>9555730503</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44810</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>9123</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>9123</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4D3C3B0C-C445-4675-A58B-FA7F37359B9F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{98F83258-F81F-4DBB-9783-40411A275005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/student.xlsx
+++ b/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118ED4A-DB46-49A2-9EB4-B4EE0E15DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965D6E1-D201-4011-A46C-52DAF743D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
+    <workbookView xWindow="1395" yWindow="720" windowWidth="22665" windowHeight="14400" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>birthday</t>
   </si>
@@ -71,9 +63,6 @@
     <t>Catholic</t>
   </si>
   <si>
-    <t>father</t>
-  </si>
-  <si>
     <t>nationality</t>
   </si>
   <si>
@@ -98,31 +87,46 @@
     <t>year</t>
   </si>
   <si>
-    <t>course1</t>
-  </si>
-  <si>
-    <t>year1</t>
-  </si>
-  <si>
-    <t>major1</t>
-  </si>
-  <si>
     <t>Juan dela cruz</t>
   </si>
   <si>
-    <t>juandelacruz01@gmail.com</t>
-  </si>
-  <si>
     <t>2022-201</t>
   </si>
   <si>
-    <t>juandelacruz01sdsd@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan dela cruz111</t>
-  </si>
-  <si>
-    <t>2022-201we</t>
+    <t>student@gmail.com</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>4th Year</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Juan SR. Dela Cruz</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Maria Clara</t>
+  </si>
+  <si>
+    <t>Sewer</t>
   </si>
 </sst>
 </file>
@@ -485,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CA6CD-15A5-44D6-8552-2C8A2F67E216}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,34 +527,34 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -577,128 +581,76 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2">
-        <v>9555730503</v>
+        <v>9123998359</v>
       </c>
       <c r="H2" s="3">
         <v>44810</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2">
-        <v>9123</v>
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>9123998359</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R2">
-        <v>9123</v>
+        <v>9123998359</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>9555730503</v>
-      </c>
-      <c r="H3" s="3">
-        <v>44810</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="2">
-        <v>9123</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>9123</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4D3C3B0C-C445-4675-A58B-FA7F37359B9F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{98F83258-F81F-4DBB-9783-40411A275005}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/student.xlsx
+++ b/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965D6E1-D201-4011-A46C-52DAF743D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6802FC-362B-485B-849A-140F81CE2222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="720" windowWidth="22665" windowHeight="14400" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>religion</t>
-  </si>
-  <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>father_phone_number</t>
-  </si>
-  <si>
-    <t>father_occupation</t>
-  </si>
-  <si>
-    <t>mother_name</t>
-  </si>
-  <si>
-    <t>mother_phone_number</t>
-  </si>
-  <si>
-    <t>mother_occupation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>email</t>
   </si>
@@ -60,18 +36,9 @@
     <t>address</t>
   </si>
   <si>
-    <t>Catholic</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
@@ -87,46 +54,46 @@
     <t>year</t>
   </si>
   <si>
-    <t>Juan dela cruz</t>
-  </si>
-  <si>
-    <t>2022-201</t>
-  </si>
-  <si>
-    <t>student@gmail.com</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
     <t>Computer</t>
   </si>
   <si>
-    <t>4th Year</t>
-  </si>
-  <si>
-    <t>Tagalog</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Filipino</t>
-  </si>
-  <si>
     <t>Manila</t>
   </si>
   <si>
-    <t>Juan SR. Dela Cruz</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Maria Clara</t>
-  </si>
-  <si>
-    <t>Sewer</t>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>Test upload School year</t>
+  </si>
+  <si>
+    <t>Test upload 1 School year</t>
+  </si>
+  <si>
+    <t>schyear@gmail.com</t>
+  </si>
+  <si>
+    <t>schoyearrrr@gmail.com</t>
+  </si>
+  <si>
+    <t>2022-20221</t>
+  </si>
+  <si>
+    <t>2012-2012</t>
+  </si>
+  <si>
+    <t>school_year</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>BSCS</t>
   </si>
 </sst>
 </file>
@@ -177,11 +144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,160 +463,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CA6CD-15A5-44D6-8552-2C8A2F67E216}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="7" width="21" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="13" width="25.42578125" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" customWidth="1"/>
+    <col min="3" max="9" width="21" customWidth="1"/>
+    <col min="10" max="12" width="25.42578125" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>9123998359</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>9123998351</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>9123998359</v>
-      </c>
-      <c r="H2" s="3">
-        <v>44810</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>9123998359</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2">
-        <v>9123998359</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G38" xr:uid="{C701A97A-1E99-4BEE-B20B-6720F9BFA405}">
+      <formula1>"First,Second,Third,Fourth"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H38" xr:uid="{E01F9861-8782-4F78-9371-21D275DFA51D}">
+      <formula1>"First,Second"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J38" xr:uid="{1D2828FE-0944-4E57-899B-A3957DD6EBB3}">
+      <formula1>"Male,Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{887C489A-07E3-4915-9E60-088AE278E6E3}">
+      <formula1>"BSCS,BSIS,ACT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D530" xr:uid="{8467EDB4-D15F-4A17-828B-BCC93FBAB43D}">
+      <formula1>"2020-2021,2021-2022,2022-2023,2023-2024,2024-2025"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1C5B7773-17CC-43E1-A814-1EC8C99907B0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8E306A1D-C164-4E1B-AE67-81C9844DB204}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/student.xlsx
+++ b/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6802FC-362B-485B-849A-140F81CE2222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299540FE-CA7F-4EAF-A278-D3EF76849C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>email</t>
   </si>
@@ -66,24 +66,6 @@
     <t>semester</t>
   </si>
   <si>
-    <t>Test upload School year</t>
-  </si>
-  <si>
-    <t>Test upload 1 School year</t>
-  </si>
-  <si>
-    <t>schyear@gmail.com</t>
-  </si>
-  <si>
-    <t>schoyearrrr@gmail.com</t>
-  </si>
-  <si>
-    <t>2022-20221</t>
-  </si>
-  <si>
-    <t>2012-2012</t>
-  </si>
-  <si>
     <t>school_year</t>
   </si>
   <si>
@@ -94,6 +76,15 @@
   </si>
   <si>
     <t>BSCS</t>
+  </si>
+  <si>
+    <t>Juan dela cruz</t>
+  </si>
+  <si>
+    <t>juandelacruz@gmail.com</t>
+  </si>
+  <si>
+    <t>2022-2022</t>
   </si>
 </sst>
 </file>
@@ -495,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -529,31 +520,31 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>9123998359</v>
+        <v>9555730503</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -566,39 +557,10 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3">
-        <v>9123998351</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="U3" s="2"/>
@@ -617,15 +579,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{887C489A-07E3-4915-9E60-088AE278E6E3}">
       <formula1>"BSCS,BSIS,ACT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D530" xr:uid="{8467EDB4-D15F-4A17-828B-BCC93FBAB43D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D530 D2" xr:uid="{8467EDB4-D15F-4A17-828B-BCC93FBAB43D}">
       <formula1>"2020-2021,2021-2022,2022-2023,2023-2024,2024-2025"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1C5B7773-17CC-43E1-A814-1EC8C99907B0}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{8E306A1D-C164-4E1B-AE67-81C9844DB204}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/student.xlsx
+++ b/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.4\htdocs\slftc-accounting-monitoring-with-sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299540FE-CA7F-4EAF-A278-D3EF76849C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A11AD1-DC70-4920-ACBB-F43A0C400DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A4B76A7-D17B-4C1E-9B52-FC684726E6AA}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>First</t>
   </si>
   <si>
-    <t>BSCS</t>
-  </si>
-  <si>
     <t>Juan dela cruz</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>2022-2022</t>
+  </si>
+  <si>
+    <t>BSTM</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,19 +520,19 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -576,11 +576,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J38" xr:uid="{1D2828FE-0944-4E57-899B-A3957DD6EBB3}">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{887C489A-07E3-4915-9E60-088AE278E6E3}">
-      <formula1>"BSCS,BSIS,ACT"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D530" xr:uid="{8467EDB4-D15F-4A17-828B-BCC93FBAB43D}">
+      <formula1>"2020-2021,2021-2022,2022-2023,2023-2024,2024-2025"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D530 D2" xr:uid="{8467EDB4-D15F-4A17-828B-BCC93FBAB43D}">
-      <formula1>"2020-2021,2021-2022,2022-2023,2023-2024,2024-2025"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E397" xr:uid="{CDE1686E-4340-4FC4-AC9B-31A32D9554A0}">
+      <formula1>"BSCS,BSIS,ACT,BSBA,BSED,BSTM"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
